--- a/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-24T15:36:10+00:00</t>
+    <t>2024-02-24T15:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-24T15:37:49+00:00</t>
+    <t>2024-02-24T15:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-24T15:55:47+00:00</t>
+    <t>2024-02-24T16:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-24T16:15:22+00:00</t>
+    <t>2024-02-24T16:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-24T16:32:19+00:00</t>
+    <t>2024-02-24T17:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T13:32:23+00:00</t>
+    <t>2024-06-04T13:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T13:56:37+00:00</t>
+    <t>2024-06-04T14:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/test-mapping/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:19:32+00:00</t>
+    <t>2024-06-04T14:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
